--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2840.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2840.xlsx
@@ -354,7 +354,7 @@
         <v>2.442995304640304</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.360903009496814</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2840.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2840.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171064585797132</v>
+        <v>1.17451536655426</v>
       </c>
       <c r="B1">
-        <v>2.442995304640304</v>
+        <v>2.180500507354736</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.433859825134277</v>
       </c>
       <c r="D1">
-        <v>2.360903009496814</v>
+        <v>2.711233854293823</v>
       </c>
       <c r="E1">
-        <v>1.235096890250837</v>
+        <v>1.22624671459198</v>
       </c>
     </row>
   </sheetData>
